--- a/ME345W/Lab11/analysisLab11.xlsx
+++ b/ME345W/Lab11/analysisLab11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nominal Height (in)</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">Height (in)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vout Adjusted (V)</t>
+    <t xml:space="preserve">Vout Adjusted, Gauge Pressure (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout Adjusted, Differential Pressure (V)</t>
   </si>
   <si>
     <t xml:space="preserve">Min Differential Pressure (kPa)</t>
@@ -46,10 +49,13 @@
     <t xml:space="preserve">Differential Pressure (kPa)</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected Differential Pressure (kPa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Vout (V)</t>
+    <t xml:space="preserve">dPexpected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPadj</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -113,6 +119,13 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -150,11 +163,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,26 +196,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="13" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -215,23 +224,29 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,19 +266,25 @@
         <v>1.28015952143569</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.525582773116344</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.0270782865759653</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.276330529846155</v>
+        <v>-0.25</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>1.325</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,19 +304,25 @@
         <v>1.54137587238285</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.786017818926074</v>
+        <v>1.26121635094716</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.287513332385695</v>
+        <v>0.511216350947158</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.536765575655884</v>
+        <v>0.0112163509471586</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.573642374599093</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>1.57364237459909</v>
+        <v>0.261216350947158</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.248642374599093</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1.24864237459909</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.261216350947158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,19 +342,25 @@
         <v>1.79760717846461</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.04148273027379</v>
+        <v>1.51744765702891</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.542978243733406</v>
+        <v>0.767447657028913</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.792230487003595</v>
+        <v>0.267447657028913</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.822284749198185</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>1.82228474919819</v>
+        <v>0.517447657028913</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.497284749198185</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1.49728474919819</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.517447657028913</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,19 +380,25 @@
         <v>2.0468594217348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.28998945337467</v>
+        <v>1.7666999002991</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.791484966834293</v>
+        <v>1.0166999002991</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.04073721010448</v>
+        <v>0.516699900299103</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.07092712379728</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>2.07092712379728</v>
+        <v>0.766699900299103</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.745927123797278</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>1.74592712379728</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0.766699900299103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,19 +418,25 @@
         <v>2.29810568295115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.54048423026037</v>
+        <v>2.01794616151545</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.04197974371999</v>
+        <v>1.26794616151545</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.29123198699018</v>
+        <v>0.767946161515454</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.31956949839637</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>2.31956949839637</v>
+        <v>1.01794616151545</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.99456949839637</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1.99456949839637</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1.01794616151545</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,19 +456,25 @@
         <v>2.53738783649053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.77905068443722</v>
+        <v>2.25722831505484</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.28054619789684</v>
+        <v>1.50722831505484</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1.52979844116703</v>
+        <v>1.00722831505484</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>1.56821187299546</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>2.56821187299546</v>
+        <v>1.25722831505484</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1.24321187299546</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2.24321187299546</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1.25722831505484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,19 +494,25 @@
         <v>2.77866400797607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.01960519239888</v>
+        <v>2.49850448654038</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.5211007058585</v>
+        <v>1.74850448654038</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.77035294912869</v>
+        <v>1.24850448654038</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.81685424759456</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>2.81685424759456</v>
+        <v>1.49850448654038</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1.49185424759456</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2.49185424759456</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1.49850448654038</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,19 +532,25 @@
         <v>3.02492522432702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.26512983482255</v>
+        <v>2.74476570289133</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.76662534828217</v>
+        <v>1.99476570289133</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.01587759155236</v>
+        <v>1.49476570289133</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.06549662219365</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>3.06549662219365</v>
+        <v>1.74476570289133</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1.74049662219365</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>2.74049662219365</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1.74476570289133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,19 +570,25 @@
         <v>3.27716849451645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.51661863860065</v>
+        <v>2.99700897308076</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>2.01811415206027</v>
+        <v>2.24700897308076</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.26736639533046</v>
+        <v>1.74700897308076</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>2.31413899679274</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>3.31413899679274</v>
+        <v>1.99700897308076</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1.98913899679274</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>2.98913899679274</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1.99700897308076</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,19 +608,25 @@
         <v>3.5024925224327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.74126871628385</v>
+        <v>3.22233300099701</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.24276422974347</v>
+        <v>2.47233300099701</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.49201647301366</v>
+        <v>1.97233300099701</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.54724122297939</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>3.54724122297939</v>
+        <v>2.22233300099701</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>2.22224122297939</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>3.22224122297939</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>2.22233300099701</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,19 +646,25 @@
         <v>3.77666999002991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.01462611169483</v>
+        <v>3.49651046859422</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.51612162515445</v>
+        <v>2.74651046859422</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.76537386842464</v>
+        <v>2.24651046859422</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.79588359757848</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>3.79588359757848</v>
+        <v>2.49651046859422</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>2.47088359757848</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>3.47088359757848</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>2.49651046859422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,19 +684,25 @@
         <v>4</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.23728813559322</v>
+        <v>3.71984047856431</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2.73878364905284</v>
+        <v>2.96984047856431</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>2.98803589232303</v>
+        <v>2.46984047856431</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>3.04452597217757</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>4.04452597217758</v>
+        <v>2.71984047856431</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>2.71952597217757</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>3.71952597217757</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>2.71984047856431</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,19 +722,25 @@
         <v>4.24526420737787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.48181875112449</v>
+        <v>3.96510468594217</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.98331426458411</v>
+        <v>3.21510468594217</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.2325665078543</v>
+        <v>2.71510468594217</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.29316834677667</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>4.29316834677667</v>
+        <v>2.96510468594217</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>2.96816834677667</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>3.96816834677667</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>2.96510468594217</v>
       </c>
     </row>
   </sheetData>
